--- a/Code/Results/Cases/Case_0_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.063859979312944</v>
+        <v>12.31540361230704</v>
       </c>
       <c r="D2">
-        <v>2.563368297420696</v>
+        <v>4.231818227149851</v>
       </c>
       <c r="E2">
-        <v>6.261006735926236</v>
+        <v>12.62927869702264</v>
       </c>
       <c r="F2">
-        <v>24.67814420620971</v>
+        <v>25.12074969784221</v>
       </c>
       <c r="G2">
-        <v>35.62979306735991</v>
+        <v>31.09846476813864</v>
       </c>
       <c r="H2">
-        <v>10.18186640753941</v>
+        <v>14.19147225454205</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.717593844262703</v>
+        <v>8.89678928261948</v>
       </c>
       <c r="M2">
-        <v>28.95085037967752</v>
+        <v>22.58615359304756</v>
       </c>
       <c r="N2">
-        <v>19.57816900970087</v>
+        <v>17.38958903131407</v>
       </c>
       <c r="O2">
-        <v>19.11906683313291</v>
+        <v>22.06309919922899</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.893431712130992</v>
+        <v>12.35085028893442</v>
       </c>
       <c r="D3">
-        <v>2.561952696363992</v>
+        <v>4.231742074520271</v>
       </c>
       <c r="E3">
-        <v>6.460462235885273</v>
+        <v>12.71486225660265</v>
       </c>
       <c r="F3">
-        <v>23.31412720297667</v>
+        <v>24.89328269715379</v>
       </c>
       <c r="G3">
-        <v>33.40967766535912</v>
+        <v>30.60324944919293</v>
       </c>
       <c r="H3">
-        <v>9.855061257957365</v>
+        <v>14.18494371350316</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.828917830293715</v>
+        <v>8.935730736436721</v>
       </c>
       <c r="M3">
-        <v>27.04762282920919</v>
+        <v>21.88444132594487</v>
       </c>
       <c r="N3">
-        <v>18.73903365265212</v>
+        <v>17.10576821282844</v>
       </c>
       <c r="O3">
-        <v>18.20331562933227</v>
+        <v>21.95935382316665</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.798067304948914</v>
+        <v>12.37616480145269</v>
       </c>
       <c r="D4">
-        <v>2.561049022172206</v>
+        <v>4.231754909150133</v>
       </c>
       <c r="E4">
-        <v>6.589709901418844</v>
+        <v>12.77018974641919</v>
       </c>
       <c r="F4">
-        <v>22.45874049937904</v>
+        <v>24.76085180009394</v>
       </c>
       <c r="G4">
-        <v>32.00522997115274</v>
+        <v>30.30703916771309</v>
       </c>
       <c r="H4">
-        <v>9.658145215508354</v>
+        <v>14.18428144291796</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.898869793233882</v>
+        <v>8.960784555437689</v>
       </c>
       <c r="M4">
-        <v>25.80750713387773</v>
+        <v>21.44211288843011</v>
       </c>
       <c r="N4">
-        <v>18.20713839439752</v>
+        <v>16.9310585898549</v>
       </c>
       <c r="O4">
-        <v>17.63633568313504</v>
+        <v>21.90201447210531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.76150411951098</v>
+        <v>12.38736878506425</v>
       </c>
       <c r="D5">
-        <v>2.5606756845554</v>
+        <v>4.231775323363022</v>
       </c>
       <c r="E5">
-        <v>6.643991759216015</v>
+        <v>12.79343537064705</v>
       </c>
       <c r="F5">
-        <v>22.10607137893167</v>
+        <v>24.70876159359317</v>
       </c>
       <c r="G5">
-        <v>31.42299101735537</v>
+        <v>30.18848069176239</v>
       </c>
       <c r="H5">
-        <v>9.578923610903727</v>
+        <v>14.18485323700378</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.927792273523181</v>
+        <v>8.971282657620701</v>
       </c>
       <c r="M5">
-        <v>25.28408622215303</v>
+        <v>21.25921551990863</v>
       </c>
       <c r="N5">
-        <v>17.98647558332364</v>
+        <v>16.85983833098167</v>
       </c>
       <c r="O5">
-        <v>17.40440655057331</v>
+        <v>21.88026505771417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.75557043582501</v>
+        <v>12.38928269944944</v>
       </c>
       <c r="D6">
-        <v>2.560613489062306</v>
+        <v>4.231779636046952</v>
       </c>
       <c r="E6">
-        <v>6.653100162386028</v>
+        <v>12.79733753459915</v>
       </c>
       <c r="F6">
-        <v>22.04727720241226</v>
+        <v>24.70022697709681</v>
       </c>
       <c r="G6">
-        <v>31.32572815440283</v>
+        <v>30.16892899146946</v>
       </c>
       <c r="H6">
-        <v>9.565833175162822</v>
+        <v>14.18499901383839</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.932620393056764</v>
+        <v>8.973043308587108</v>
       </c>
       <c r="M6">
-        <v>25.19607941219025</v>
+        <v>21.22869322257825</v>
       </c>
       <c r="N6">
-        <v>17.9496073913625</v>
+        <v>16.84801332934872</v>
       </c>
       <c r="O6">
-        <v>17.3658514704466</v>
+        <v>21.87675169439862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.797564947826601</v>
+        <v>12.37631231258949</v>
       </c>
       <c r="D7">
-        <v>2.561044003086209</v>
+        <v>4.231755122733434</v>
       </c>
       <c r="E7">
-        <v>6.590435549216545</v>
+        <v>12.77050041328918</v>
       </c>
       <c r="F7">
-        <v>22.45400025526724</v>
+        <v>24.76014162324568</v>
       </c>
       <c r="G7">
-        <v>31.99741712234527</v>
+        <v>30.30543131562927</v>
       </c>
       <c r="H7">
-        <v>9.657072551597247</v>
+        <v>14.18428574658131</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.899258146964567</v>
+        <v>8.960924967346109</v>
       </c>
       <c r="M7">
-        <v>25.80052133498002</v>
+        <v>21.4396566474777</v>
       </c>
       <c r="N7">
-        <v>18.20417789733758</v>
+        <v>16.93009807297626</v>
       </c>
       <c r="O7">
-        <v>17.63321093593881</v>
+        <v>21.90171458440284</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.003152657319754</v>
+        <v>12.32688610704167</v>
       </c>
       <c r="D8">
-        <v>2.562889530749495</v>
+        <v>4.231779719948024</v>
       </c>
       <c r="E8">
-        <v>6.328311009807369</v>
+        <v>12.65821143292973</v>
       </c>
       <c r="F8">
-        <v>24.21175688579232</v>
+        <v>25.04085309656326</v>
       </c>
       <c r="G8">
-        <v>34.87310589544234</v>
+        <v>30.92619054708625</v>
       </c>
       <c r="H8">
-        <v>10.06845495028831</v>
+        <v>14.18852698777637</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.755655577360448</v>
+        <v>8.909979482816221</v>
       </c>
       <c r="M8">
-        <v>28.30941408199124</v>
+        <v>22.34672265466789</v>
       </c>
       <c r="N8">
-        <v>19.29244874297698</v>
+        <v>17.29187093185413</v>
       </c>
       <c r="O8">
-        <v>18.80445970831281</v>
+        <v>22.02601882417525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.481007121805801</v>
+        <v>12.25832547243187</v>
       </c>
       <c r="D9">
-        <v>2.566072373022907</v>
+        <v>4.232292195346705</v>
       </c>
       <c r="E9">
-        <v>5.873146957678462</v>
+        <v>12.46004043767267</v>
       </c>
       <c r="F9">
-        <v>27.50340082991997</v>
+        <v>25.64602259496743</v>
       </c>
       <c r="G9">
-        <v>40.17075198740748</v>
+        <v>32.19796156294807</v>
       </c>
       <c r="H9">
-        <v>10.90155694909128</v>
+        <v>14.223363201697</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.486030733759404</v>
+        <v>8.819107992887147</v>
       </c>
       <c r="M9">
-        <v>32.66562728883014</v>
+        <v>24.02489547832061</v>
       </c>
       <c r="N9">
-        <v>21.28401318227378</v>
+        <v>17.99407867198627</v>
       </c>
       <c r="O9">
-        <v>21.05308815442086</v>
+        <v>22.31936591299453</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.878572919741883</v>
+        <v>12.2254977589977</v>
       </c>
       <c r="D10">
-        <v>2.567919176348432</v>
+        <v>4.23294036765294</v>
       </c>
       <c r="E10">
-        <v>5.583256089086527</v>
+        <v>12.32784228399085</v>
       </c>
       <c r="F10">
-        <v>29.81450801220192</v>
+        <v>26.12011582875498</v>
       </c>
       <c r="G10">
-        <v>43.91280750640946</v>
+        <v>33.154916789998</v>
       </c>
       <c r="H10">
-        <v>11.52587989738474</v>
+        <v>14.26504844224996</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.29417990006607</v>
+        <v>8.757792076337637</v>
       </c>
       <c r="M10">
-        <v>35.52815309197332</v>
+        <v>25.18516056509593</v>
       </c>
       <c r="N10">
-        <v>22.64895950720945</v>
+        <v>18.50076743103616</v>
       </c>
       <c r="O10">
-        <v>22.66475353468763</v>
+        <v>22.56377152927111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.069631264254554</v>
+        <v>12.21442151483202</v>
       </c>
       <c r="D11">
-        <v>2.568603073360621</v>
+        <v>4.233291842728237</v>
       </c>
       <c r="E11">
-        <v>5.463513627975862</v>
+        <v>12.27060577515923</v>
       </c>
       <c r="F11">
-        <v>30.92094206421752</v>
+        <v>26.34131567546637</v>
       </c>
       <c r="G11">
-        <v>45.57674317555851</v>
+        <v>33.59293277453217</v>
       </c>
       <c r="H11">
-        <v>11.81196075909145</v>
+        <v>14.28747812539641</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.20800079030617</v>
+        <v>8.731068080148068</v>
       </c>
       <c r="M11">
-        <v>36.75833098353392</v>
+        <v>25.69518991400071</v>
       </c>
       <c r="N11">
-        <v>23.24679253872316</v>
+        <v>18.72830678788785</v>
       </c>
       <c r="O11">
-        <v>23.38780486727441</v>
+        <v>22.68089635239924</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.143452451694053</v>
+        <v>12.21078538766895</v>
       </c>
       <c r="D12">
-        <v>2.568835429450907</v>
+        <v>4.233432879809946</v>
       </c>
       <c r="E12">
-        <v>5.420170304725134</v>
+        <v>12.2493487983609</v>
       </c>
       <c r="F12">
-        <v>31.34138984501404</v>
+        <v>26.42579775361004</v>
       </c>
       <c r="G12">
-        <v>46.1992468218324</v>
+        <v>33.75900383266122</v>
       </c>
       <c r="H12">
-        <v>11.92055682110721</v>
+        <v>14.29646681077201</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.17550131995172</v>
+        <v>8.721115542550878</v>
       </c>
       <c r="M12">
-        <v>37.21392839463661</v>
+        <v>25.88562315376026</v>
       </c>
       <c r="N12">
-        <v>23.46974264090909</v>
+        <v>18.81396908886077</v>
       </c>
       <c r="O12">
-        <v>23.69497195417852</v>
+        <v>22.72607204383014</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.127488206110746</v>
+        <v>12.2115436134451</v>
       </c>
       <c r="D13">
-        <v>2.568786637901179</v>
+        <v>4.233402154944031</v>
       </c>
       <c r="E13">
-        <v>5.42941153666249</v>
+        <v>12.25390830956689</v>
       </c>
       <c r="F13">
-        <v>31.25107922420335</v>
+        <v>26.40757230806879</v>
       </c>
       <c r="G13">
-        <v>46.06551432372587</v>
+        <v>33.72323124847918</v>
       </c>
       <c r="H13">
-        <v>11.89715739731285</v>
+        <v>14.29450898062282</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.182495055238083</v>
+        <v>8.723251573829929</v>
       </c>
       <c r="M13">
-        <v>37.1162611480857</v>
+        <v>25.84473236501429</v>
       </c>
       <c r="N13">
-        <v>23.42188078470451</v>
+        <v>18.79554368596318</v>
       </c>
       <c r="O13">
-        <v>23.62519869314941</v>
+        <v>22.71630656611913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.075675056207629</v>
+        <v>12.21411116205991</v>
       </c>
       <c r="D14">
-        <v>2.568622746880219</v>
+        <v>4.233303287927324</v>
       </c>
       <c r="E14">
-        <v>5.45990602781756</v>
+        <v>12.26884858796889</v>
       </c>
       <c r="F14">
-        <v>30.95564104078701</v>
+        <v>26.34825211191873</v>
       </c>
       <c r="G14">
-        <v>45.62810807388737</v>
+        <v>33.60659248373955</v>
       </c>
       <c r="H14">
-        <v>11.82088988993672</v>
+        <v>14.28820773039975</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.205324477208605</v>
+        <v>8.730245931491394</v>
       </c>
       <c r="M14">
-        <v>36.79601791840081</v>
+        <v>25.71091194240824</v>
       </c>
       <c r="N14">
-        <v>23.26520423036817</v>
+        <v>18.73536476286892</v>
       </c>
       <c r="O14">
-        <v>23.4102370475188</v>
+        <v>22.68459667554239</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.044129793622901</v>
+        <v>12.21575665415226</v>
       </c>
       <c r="D15">
-        <v>2.568518768208152</v>
+        <v>4.233243757258784</v>
       </c>
       <c r="E15">
-        <v>5.478853669741837</v>
+        <v>12.27805428110413</v>
       </c>
       <c r="F15">
-        <v>30.77397073874253</v>
+        <v>26.31200804467581</v>
       </c>
       <c r="G15">
-        <v>45.35920051863749</v>
+        <v>33.53516908261033</v>
       </c>
       <c r="H15">
-        <v>11.77420736426795</v>
+        <v>14.28441238971251</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.21932498956054</v>
+        <v>8.734551935132066</v>
       </c>
       <c r="M15">
-        <v>36.59852893939406</v>
+        <v>25.62858687644218</v>
       </c>
       <c r="N15">
-        <v>23.16878475414439</v>
+        <v>18.69843585400502</v>
       </c>
       <c r="O15">
-        <v>23.2928714693838</v>
+        <v>22.66527967114886</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.866292472523932</v>
+        <v>12.22629954509448</v>
       </c>
       <c r="D16">
-        <v>2.567870984003488</v>
+        <v>4.232918520060943</v>
       </c>
       <c r="E16">
-        <v>5.59134655054083</v>
+        <v>12.33164120654313</v>
       </c>
       <c r="F16">
-        <v>29.74690509098052</v>
+        <v>26.10576466218518</v>
       </c>
       <c r="G16">
-        <v>43.80299395391162</v>
+        <v>33.12632980656782</v>
       </c>
       <c r="H16">
-        <v>11.50722227068209</v>
+        <v>14.26365208778559</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.299832037276663</v>
+        <v>8.759562002988874</v>
       </c>
       <c r="M16">
-        <v>35.44631844696616</v>
+        <v>25.15145820804423</v>
       </c>
       <c r="N16">
-        <v>22.60941464945276</v>
+        <v>18.4858310628749</v>
       </c>
       <c r="O16">
-        <v>22.61729118812508</v>
+        <v>22.55623408395402</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.75981124354049</v>
+        <v>12.23375781978279</v>
       </c>
       <c r="D17">
-        <v>2.567430631851997</v>
+        <v>4.232733355789524</v>
       </c>
       <c r="E17">
-        <v>5.66363298084571</v>
+        <v>12.36525811956231</v>
       </c>
       <c r="F17">
-        <v>29.15170222629391</v>
+        <v>25.98060354758177</v>
       </c>
       <c r="G17">
-        <v>42.83462105174377</v>
+        <v>32.87607770330126</v>
       </c>
       <c r="H17">
-        <v>11.34393744206883</v>
+        <v>14.25180197219421</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.349485323128683</v>
+        <v>8.775203666527608</v>
       </c>
       <c r="M17">
-        <v>34.72110951559137</v>
+        <v>24.85409120640824</v>
       </c>
       <c r="N17">
-        <v>22.26025557456273</v>
+        <v>18.35459196480615</v>
       </c>
       <c r="O17">
-        <v>22.20020183768655</v>
+        <v>22.49083850568172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.699526258346021</v>
+        <v>12.2384104926922</v>
       </c>
       <c r="D18">
-        <v>2.567162899932528</v>
+        <v>4.232632195235852</v>
       </c>
       <c r="E18">
-        <v>5.706334167238455</v>
+        <v>12.38486673479274</v>
       </c>
       <c r="F18">
-        <v>28.80704932830519</v>
+        <v>25.90913962466716</v>
       </c>
       <c r="G18">
-        <v>42.27256730978231</v>
+        <v>32.73240339167113</v>
       </c>
       <c r="H18">
-        <v>11.25021669690574</v>
+        <v>14.2453126618174</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.378149098220164</v>
+        <v>8.784310411375452</v>
       </c>
       <c r="M18">
-        <v>34.29720467954468</v>
+        <v>24.68138761568975</v>
       </c>
       <c r="N18">
-        <v>22.05726073047963</v>
+        <v>18.27883284988673</v>
       </c>
       <c r="O18">
-        <v>21.95935273512228</v>
+        <v>22.45378613890925</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.679279597760093</v>
+        <v>12.24004801811843</v>
       </c>
       <c r="D19">
-        <v>2.567069894222777</v>
+        <v>4.232598867484856</v>
       </c>
       <c r="E19">
-        <v>5.720977987269174</v>
+        <v>12.39155277155633</v>
       </c>
       <c r="F19">
-        <v>28.68996123844093</v>
+        <v>25.8850357434003</v>
       </c>
       <c r="G19">
-        <v>42.08139157243953</v>
+        <v>32.68380876272071</v>
       </c>
       <c r="H19">
-        <v>11.21851947700885</v>
+        <v>14.24317167669901</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.387872773037078</v>
+        <v>8.787412729349473</v>
       </c>
       <c r="M19">
-        <v>34.15250943251227</v>
+        <v>24.62263176847287</v>
       </c>
       <c r="N19">
-        <v>21.98816177563732</v>
+        <v>18.25313748323822</v>
       </c>
       <c r="O19">
-        <v>21.87764462322314</v>
+        <v>22.44133820559873</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.771046947706353</v>
+        <v>12.23292629131125</v>
       </c>
       <c r="D20">
-        <v>2.567479033913734</v>
+        <v>4.232752515508862</v>
       </c>
       <c r="E20">
-        <v>5.655819925138983</v>
+        <v>12.36165128117915</v>
       </c>
       <c r="F20">
-        <v>29.21530185036719</v>
+        <v>25.99387333574991</v>
       </c>
       <c r="G20">
-        <v>42.93823009169002</v>
+        <v>32.90269147988026</v>
       </c>
       <c r="H20">
-        <v>11.3612993637759</v>
+        <v>14.25302966251011</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.344188987468567</v>
+        <v>8.773527198538138</v>
       </c>
       <c r="M20">
-        <v>34.79901057539278</v>
+        <v>24.88591996848558</v>
       </c>
       <c r="N20">
-        <v>22.29764942739508</v>
+        <v>18.36859150265975</v>
       </c>
       <c r="O20">
-        <v>22.24470062490125</v>
+        <v>22.49774209289638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.090853855783404</v>
+        <v>12.21334183464102</v>
       </c>
       <c r="D21">
-        <v>2.568671641412226</v>
+        <v>4.233332113638435</v>
       </c>
       <c r="E21">
-        <v>5.45089250094498</v>
+        <v>12.26444894115219</v>
       </c>
       <c r="F21">
-        <v>31.04256527827123</v>
+        <v>26.36565701052886</v>
       </c>
       <c r="G21">
-        <v>45.75678953558411</v>
+        <v>33.64084801522299</v>
       </c>
       <c r="H21">
-        <v>11.84328456055877</v>
+        <v>14.29004515541369</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.198615458156993</v>
+        <v>8.728186986305825</v>
       </c>
       <c r="M21">
-        <v>36.89035824148672</v>
+        <v>25.75029271392254</v>
       </c>
       <c r="N21">
-        <v>23.31131800471059</v>
+        <v>18.7530549869502</v>
       </c>
       <c r="O21">
-        <v>23.4664634742338</v>
+        <v>22.69388856188441</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.308447024673303</v>
+        <v>12.20379732295377</v>
       </c>
       <c r="D22">
-        <v>2.569293965694196</v>
+        <v>4.233757109195006</v>
       </c>
       <c r="E22">
-        <v>5.328772754812067</v>
+        <v>12.20335371134536</v>
       </c>
       <c r="F22">
-        <v>32.25633028698131</v>
+        <v>26.61279078814983</v>
       </c>
       <c r="G22">
-        <v>47.55473583184867</v>
+        <v>34.12438365921447</v>
       </c>
       <c r="H22">
-        <v>12.15981972392615</v>
+        <v>14.31712043176291</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.104247805914303</v>
+        <v>8.699529072972945</v>
       </c>
       <c r="M22">
-        <v>38.19751890264508</v>
+        <v>26.29939367016662</v>
       </c>
       <c r="N22">
-        <v>23.95374149233222</v>
+        <v>19.00136560686324</v>
       </c>
       <c r="O22">
-        <v>24.40179412081365</v>
+        <v>22.82686321122026</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.191526382872093</v>
+        <v>12.20859248511156</v>
       </c>
       <c r="D23">
-        <v>2.568977575951003</v>
+        <v>4.233526120193635</v>
       </c>
       <c r="E23">
-        <v>5.392773169189579</v>
+        <v>12.23573880389736</v>
       </c>
       <c r="F23">
-        <v>31.61137798726946</v>
+        <v>26.48053664100011</v>
       </c>
       <c r="G23">
-        <v>46.59911495950455</v>
+        <v>33.86626929378798</v>
       </c>
       <c r="H23">
-        <v>11.99074662068392</v>
+        <v>14.30240730587883</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.154550897747968</v>
+        <v>8.714735443426713</v>
       </c>
       <c r="M23">
-        <v>37.50528338171604</v>
+        <v>26.007819702187</v>
       </c>
       <c r="N23">
-        <v>23.61273673740543</v>
+        <v>18.8691326645061</v>
       </c>
       <c r="O23">
-        <v>23.90355635686768</v>
+        <v>22.75546550393854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.765964381627592</v>
+        <v>12.23330108924546</v>
       </c>
       <c r="D24">
-        <v>2.567457196402743</v>
+        <v>4.232743836872693</v>
       </c>
       <c r="E24">
-        <v>5.659348667004855</v>
+        <v>12.3632810549724</v>
       </c>
       <c r="F24">
-        <v>29.18655612856406</v>
+        <v>25.98787252331808</v>
       </c>
       <c r="G24">
-        <v>42.89140503495902</v>
+        <v>32.89065875762552</v>
       </c>
       <c r="H24">
-        <v>11.35344955685893</v>
+        <v>14.25247361577621</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.346583093327081</v>
+        <v>8.774284774072372</v>
       </c>
       <c r="M24">
-        <v>34.7638132324079</v>
+        <v>24.87153560389041</v>
       </c>
       <c r="N24">
-        <v>22.28075069262229</v>
+        <v>18.36226326508119</v>
       </c>
       <c r="O24">
-        <v>22.22458601646685</v>
+        <v>22.49461928280682</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.343615071138251</v>
+        <v>12.27380927573925</v>
       </c>
       <c r="D25">
-        <v>2.565281102576555</v>
+        <v>4.232105035291562</v>
       </c>
       <c r="E25">
-        <v>5.989186742829871</v>
+        <v>12.51129613266566</v>
       </c>
       <c r="F25">
-        <v>26.63112029531186</v>
+        <v>25.47684072858808</v>
       </c>
       <c r="G25">
-        <v>38.77564762427626</v>
+        <v>31.84918068100226</v>
       </c>
       <c r="H25">
-        <v>10.67378775941376</v>
+        <v>14.21110553433758</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.557793677967066</v>
+        <v>8.842730275542047</v>
       </c>
       <c r="M25">
-        <v>31.54694034278402</v>
+        <v>23.58292278396566</v>
       </c>
       <c r="N25">
-        <v>20.76179884709115</v>
+        <v>17.8053945511672</v>
       </c>
       <c r="O25">
-        <v>20.4512521435527</v>
+        <v>22.2348289538332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.31540361230704</v>
+        <v>8.063859979312825</v>
       </c>
       <c r="D2">
-        <v>4.231818227149851</v>
+        <v>2.56336829742057</v>
       </c>
       <c r="E2">
-        <v>12.62927869702264</v>
+        <v>6.261006735926237</v>
       </c>
       <c r="F2">
-        <v>25.12074969784221</v>
+        <v>24.6781442062097</v>
       </c>
       <c r="G2">
-        <v>31.09846476813864</v>
+        <v>35.62979306735989</v>
       </c>
       <c r="H2">
-        <v>14.19147225454205</v>
+        <v>10.18186640753938</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.89678928261948</v>
+        <v>4.717593844262773</v>
       </c>
       <c r="M2">
-        <v>22.58615359304756</v>
+        <v>28.95085037967754</v>
       </c>
       <c r="N2">
-        <v>17.38958903131407</v>
+        <v>19.57816900970088</v>
       </c>
       <c r="O2">
-        <v>22.06309919922899</v>
+        <v>19.11906683313289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.35085028893442</v>
+        <v>7.89343171213091</v>
       </c>
       <c r="D3">
-        <v>4.231742074520271</v>
+        <v>2.56195269636406</v>
       </c>
       <c r="E3">
-        <v>12.71486225660265</v>
+        <v>6.460462235885213</v>
       </c>
       <c r="F3">
-        <v>24.89328269715379</v>
+        <v>23.31412720297669</v>
       </c>
       <c r="G3">
-        <v>30.60324944919293</v>
+        <v>33.40967766535915</v>
       </c>
       <c r="H3">
-        <v>14.18494371350316</v>
+        <v>9.855061257957365</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.935730736436721</v>
+        <v>4.828917830293681</v>
       </c>
       <c r="M3">
-        <v>21.88444132594487</v>
+        <v>27.04762282920919</v>
       </c>
       <c r="N3">
-        <v>17.10576821282844</v>
+        <v>18.7390336526521</v>
       </c>
       <c r="O3">
-        <v>21.95935382316665</v>
+        <v>18.20331562933229</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.37616480145269</v>
+        <v>7.798067304948815</v>
       </c>
       <c r="D4">
-        <v>4.231754909150133</v>
+        <v>2.561049022172532</v>
       </c>
       <c r="E4">
-        <v>12.77018974641919</v>
+        <v>6.589709901418847</v>
       </c>
       <c r="F4">
-        <v>24.76085180009394</v>
+        <v>22.45874049937898</v>
       </c>
       <c r="G4">
-        <v>30.30703916771309</v>
+        <v>32.00522997115272</v>
       </c>
       <c r="H4">
-        <v>14.18428144291796</v>
+        <v>9.658145215508316</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.960784555437689</v>
+        <v>4.898869793233949</v>
       </c>
       <c r="M4">
-        <v>21.44211288843011</v>
+        <v>25.80750713387776</v>
       </c>
       <c r="N4">
-        <v>16.9310585898549</v>
+        <v>18.20713839439751</v>
       </c>
       <c r="O4">
-        <v>21.90201447210531</v>
+        <v>17.63633568313499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.38736878506425</v>
+        <v>7.761504119510968</v>
       </c>
       <c r="D5">
-        <v>4.231775323363022</v>
+        <v>2.560675684555461</v>
       </c>
       <c r="E5">
-        <v>12.79343537064705</v>
+        <v>6.643991759216081</v>
       </c>
       <c r="F5">
-        <v>24.70876159359317</v>
+        <v>22.10607137893162</v>
       </c>
       <c r="G5">
-        <v>30.18848069176239</v>
+        <v>31.42299101735532</v>
       </c>
       <c r="H5">
-        <v>14.18485323700378</v>
+        <v>9.578923610903727</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.971282657620701</v>
+        <v>4.927792273523181</v>
       </c>
       <c r="M5">
-        <v>21.25921551990863</v>
+        <v>25.28408622215305</v>
       </c>
       <c r="N5">
-        <v>16.85983833098167</v>
+        <v>17.98647558332364</v>
       </c>
       <c r="O5">
-        <v>21.88026505771417</v>
+        <v>17.40440655057326</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.38928269944944</v>
+        <v>7.755570435824935</v>
       </c>
       <c r="D6">
-        <v>4.231779636046952</v>
+        <v>2.560613489062306</v>
       </c>
       <c r="E6">
-        <v>12.79733753459915</v>
+        <v>6.65310016238609</v>
       </c>
       <c r="F6">
-        <v>24.70022697709681</v>
+        <v>22.04727720241228</v>
       </c>
       <c r="G6">
-        <v>30.16892899146946</v>
+        <v>31.32572815440288</v>
       </c>
       <c r="H6">
-        <v>14.18499901383839</v>
+        <v>9.565833175162805</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.973043308587108</v>
+        <v>4.932620393056796</v>
       </c>
       <c r="M6">
-        <v>21.22869322257825</v>
+        <v>25.19607941219024</v>
       </c>
       <c r="N6">
-        <v>16.84801332934872</v>
+        <v>17.94960739136252</v>
       </c>
       <c r="O6">
-        <v>21.87675169439862</v>
+        <v>17.36585147044662</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.37631231258949</v>
+        <v>7.797564947826535</v>
       </c>
       <c r="D7">
-        <v>4.231755122733434</v>
+        <v>2.561044003086278</v>
       </c>
       <c r="E7">
-        <v>12.77050041328918</v>
+        <v>6.59043554921648</v>
       </c>
       <c r="F7">
-        <v>24.76014162324568</v>
+        <v>22.45400025526722</v>
       </c>
       <c r="G7">
-        <v>30.30543131562927</v>
+        <v>31.99741712234528</v>
       </c>
       <c r="H7">
-        <v>14.18428574658131</v>
+        <v>9.657072551597272</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.960924967346109</v>
+        <v>4.899258146964566</v>
       </c>
       <c r="M7">
-        <v>21.4396566474777</v>
+        <v>25.80052133497999</v>
       </c>
       <c r="N7">
-        <v>16.93009807297626</v>
+        <v>18.20417789733756</v>
       </c>
       <c r="O7">
-        <v>21.90171458440284</v>
+        <v>17.63321093593881</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.32688610704167</v>
+        <v>8.003152657319735</v>
       </c>
       <c r="D8">
-        <v>4.231779719948024</v>
+        <v>2.562889530749432</v>
       </c>
       <c r="E8">
-        <v>12.65821143292973</v>
+        <v>6.328311009807617</v>
       </c>
       <c r="F8">
-        <v>25.04085309656326</v>
+        <v>24.21175688579228</v>
       </c>
       <c r="G8">
-        <v>30.92619054708625</v>
+        <v>34.87310589544231</v>
       </c>
       <c r="H8">
-        <v>14.18852698777637</v>
+        <v>10.06845495028825</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.909979482816221</v>
+        <v>4.755655577360516</v>
       </c>
       <c r="M8">
-        <v>22.34672265466789</v>
+        <v>28.30941408199126</v>
       </c>
       <c r="N8">
-        <v>17.29187093185413</v>
+        <v>19.29244874297702</v>
       </c>
       <c r="O8">
-        <v>22.02601882417525</v>
+        <v>18.80445970831276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.25832547243187</v>
+        <v>8.481007121805773</v>
       </c>
       <c r="D9">
-        <v>4.232292195346705</v>
+        <v>2.566072373022975</v>
       </c>
       <c r="E9">
-        <v>12.46004043767267</v>
+        <v>5.873146957678522</v>
       </c>
       <c r="F9">
-        <v>25.64602259496743</v>
+        <v>27.50340082991997</v>
       </c>
       <c r="G9">
-        <v>32.19796156294807</v>
+        <v>40.17075198740744</v>
       </c>
       <c r="H9">
-        <v>14.223363201697</v>
+        <v>10.90155694909128</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.819107992887147</v>
+        <v>4.486030733759472</v>
       </c>
       <c r="M9">
-        <v>24.02489547832061</v>
+        <v>32.66562728883011</v>
       </c>
       <c r="N9">
-        <v>17.99407867198627</v>
+        <v>21.28401318227378</v>
       </c>
       <c r="O9">
-        <v>22.31936591299453</v>
+        <v>21.05308815442087</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.2254977589977</v>
+        <v>8.878572919741909</v>
       </c>
       <c r="D10">
-        <v>4.23294036765294</v>
+        <v>2.567919176348432</v>
       </c>
       <c r="E10">
-        <v>12.32784228399085</v>
+        <v>5.583256089086596</v>
       </c>
       <c r="F10">
-        <v>26.12011582875498</v>
+        <v>29.81450801220195</v>
       </c>
       <c r="G10">
-        <v>33.154916789998</v>
+        <v>43.91280750640956</v>
       </c>
       <c r="H10">
-        <v>14.26504844224996</v>
+        <v>11.52587989738473</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.757792076337637</v>
+        <v>4.294179900066136</v>
       </c>
       <c r="M10">
-        <v>25.18516056509593</v>
+        <v>35.52815309197334</v>
       </c>
       <c r="N10">
-        <v>18.50076743103616</v>
+        <v>22.64895950720944</v>
       </c>
       <c r="O10">
-        <v>22.56377152927111</v>
+        <v>22.66475353468763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.21442151483202</v>
+        <v>9.069631264254561</v>
       </c>
       <c r="D11">
-        <v>4.233291842728237</v>
+        <v>2.568603073360621</v>
       </c>
       <c r="E11">
-        <v>12.27060577515923</v>
+        <v>5.463513627975913</v>
       </c>
       <c r="F11">
-        <v>26.34131567546637</v>
+        <v>30.92094206421752</v>
       </c>
       <c r="G11">
-        <v>33.59293277453217</v>
+        <v>45.57674317555851</v>
       </c>
       <c r="H11">
-        <v>14.28747812539641</v>
+        <v>11.81196075909147</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.731068080148068</v>
+        <v>4.208000790306238</v>
       </c>
       <c r="M11">
-        <v>25.69518991400071</v>
+        <v>36.75833098353392</v>
       </c>
       <c r="N11">
-        <v>18.72830678788785</v>
+        <v>23.24679253872316</v>
       </c>
       <c r="O11">
-        <v>22.68089635239924</v>
+        <v>23.38780486727444</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.21078538766895</v>
+        <v>9.143452451694092</v>
       </c>
       <c r="D12">
-        <v>4.233432879809946</v>
+        <v>2.568835429450904</v>
       </c>
       <c r="E12">
-        <v>12.2493487983609</v>
+        <v>5.420170304725246</v>
       </c>
       <c r="F12">
-        <v>26.42579775361004</v>
+        <v>31.34138984501412</v>
       </c>
       <c r="G12">
-        <v>33.75900383266122</v>
+        <v>46.19924682183254</v>
       </c>
       <c r="H12">
-        <v>14.29646681077201</v>
+        <v>11.92055682110717</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.721115542550878</v>
+        <v>4.175501319951787</v>
       </c>
       <c r="M12">
-        <v>25.88562315376026</v>
+        <v>37.21392839463666</v>
       </c>
       <c r="N12">
-        <v>18.81396908886077</v>
+        <v>23.4697426409091</v>
       </c>
       <c r="O12">
-        <v>22.72607204383014</v>
+        <v>23.69497195417862</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.2115436134451</v>
+        <v>9.127488206110671</v>
       </c>
       <c r="D13">
-        <v>4.233402154944031</v>
+        <v>2.568786637901182</v>
       </c>
       <c r="E13">
-        <v>12.25390830956689</v>
+        <v>5.429411536662541</v>
       </c>
       <c r="F13">
-        <v>26.40757230806879</v>
+        <v>31.25107922420333</v>
       </c>
       <c r="G13">
-        <v>33.72323124847918</v>
+        <v>46.06551432372586</v>
       </c>
       <c r="H13">
-        <v>14.29450898062282</v>
+        <v>11.89715739731286</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.723251573829929</v>
+        <v>4.182495055238149</v>
       </c>
       <c r="M13">
-        <v>25.84473236501429</v>
+        <v>37.11626114808569</v>
       </c>
       <c r="N13">
-        <v>18.79554368596318</v>
+        <v>23.42188078470452</v>
       </c>
       <c r="O13">
-        <v>22.71630656611913</v>
+        <v>23.62519869314939</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.21411116205991</v>
+        <v>9.075675056207645</v>
       </c>
       <c r="D14">
-        <v>4.233303287927324</v>
+        <v>2.568622746880211</v>
       </c>
       <c r="E14">
-        <v>12.26884858796889</v>
+        <v>5.459906027817625</v>
       </c>
       <c r="F14">
-        <v>26.34825211191873</v>
+        <v>30.95564104078709</v>
       </c>
       <c r="G14">
-        <v>33.60659248373955</v>
+        <v>45.62810807388747</v>
       </c>
       <c r="H14">
-        <v>14.28820773039975</v>
+        <v>11.82088988993669</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.730245931491394</v>
+        <v>4.205324477208605</v>
       </c>
       <c r="M14">
-        <v>25.71091194240824</v>
+        <v>36.79601791840085</v>
       </c>
       <c r="N14">
-        <v>18.73536476286892</v>
+        <v>23.26520423036819</v>
       </c>
       <c r="O14">
-        <v>22.68459667554239</v>
+        <v>23.4102370475188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.21575665415226</v>
+        <v>9.044129793622922</v>
       </c>
       <c r="D15">
-        <v>4.233243757258784</v>
+        <v>2.568518768208084</v>
       </c>
       <c r="E15">
-        <v>12.27805428110413</v>
+        <v>5.478853669741835</v>
       </c>
       <c r="F15">
-        <v>26.31200804467581</v>
+        <v>30.77397073874253</v>
       </c>
       <c r="G15">
-        <v>33.53516908261033</v>
+        <v>45.35920051863753</v>
       </c>
       <c r="H15">
-        <v>14.28441238971251</v>
+        <v>11.77420736426796</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.734551935132066</v>
+        <v>4.21932498956044</v>
       </c>
       <c r="M15">
-        <v>25.62858687644218</v>
+        <v>36.59852893939405</v>
       </c>
       <c r="N15">
-        <v>18.69843585400502</v>
+        <v>23.16878475414439</v>
       </c>
       <c r="O15">
-        <v>22.66527967114886</v>
+        <v>23.29287146938379</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.22629954509448</v>
+        <v>8.86629247252398</v>
       </c>
       <c r="D16">
-        <v>4.232918520060943</v>
+        <v>2.567870984003602</v>
       </c>
       <c r="E16">
-        <v>12.33164120654313</v>
+        <v>5.591346550540885</v>
       </c>
       <c r="F16">
-        <v>26.10576466218518</v>
+        <v>29.74690509098051</v>
       </c>
       <c r="G16">
-        <v>33.12632980656782</v>
+        <v>43.80299395391158</v>
       </c>
       <c r="H16">
-        <v>14.26365208778559</v>
+        <v>11.50722227068209</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.759562002988874</v>
+        <v>4.299832037276663</v>
       </c>
       <c r="M16">
-        <v>25.15145820804423</v>
+        <v>35.44631844696612</v>
       </c>
       <c r="N16">
-        <v>18.4858310628749</v>
+        <v>22.60941464945275</v>
       </c>
       <c r="O16">
-        <v>22.55623408395402</v>
+        <v>22.61729118812508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.23375781978279</v>
+        <v>8.759811243540481</v>
       </c>
       <c r="D17">
-        <v>4.232733355789524</v>
+        <v>2.567430631852111</v>
       </c>
       <c r="E17">
-        <v>12.36525811956231</v>
+        <v>5.663632980845708</v>
       </c>
       <c r="F17">
-        <v>25.98060354758177</v>
+        <v>29.15170222629389</v>
       </c>
       <c r="G17">
-        <v>32.87607770330126</v>
+        <v>42.83462105174371</v>
       </c>
       <c r="H17">
-        <v>14.25180197219421</v>
+        <v>11.34393744206885</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.775203666527608</v>
+        <v>4.349485323128683</v>
       </c>
       <c r="M17">
-        <v>24.85409120640824</v>
+        <v>34.72110951559139</v>
       </c>
       <c r="N17">
-        <v>18.35459196480615</v>
+        <v>22.26025557456273</v>
       </c>
       <c r="O17">
-        <v>22.49083850568172</v>
+        <v>22.20020183768655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.2384104926922</v>
+        <v>8.699526258345895</v>
       </c>
       <c r="D18">
-        <v>4.232632195235852</v>
+        <v>2.567162899932528</v>
       </c>
       <c r="E18">
-        <v>12.38486673479274</v>
+        <v>5.706334167238394</v>
       </c>
       <c r="F18">
-        <v>25.90913962466716</v>
+        <v>28.80704932830516</v>
       </c>
       <c r="G18">
-        <v>32.73240339167113</v>
+        <v>42.27256730978228</v>
       </c>
       <c r="H18">
-        <v>14.2453126618174</v>
+        <v>11.25021669690572</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.784310411375452</v>
+        <v>4.378149098220129</v>
       </c>
       <c r="M18">
-        <v>24.68138761568975</v>
+        <v>34.29720467954468</v>
       </c>
       <c r="N18">
-        <v>18.27883284988673</v>
+        <v>22.05726073047964</v>
       </c>
       <c r="O18">
-        <v>22.45378613890925</v>
+        <v>21.95935273512226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.24004801811843</v>
+        <v>8.679279597760052</v>
       </c>
       <c r="D19">
-        <v>4.232598867484856</v>
+        <v>2.567069894222971</v>
       </c>
       <c r="E19">
-        <v>12.39155277155633</v>
+        <v>5.720977987269118</v>
       </c>
       <c r="F19">
-        <v>25.8850357434003</v>
+        <v>28.68996123844093</v>
       </c>
       <c r="G19">
-        <v>32.68380876272071</v>
+        <v>42.08139157243952</v>
       </c>
       <c r="H19">
-        <v>14.24317167669901</v>
+        <v>11.21851947700886</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.787412729349473</v>
+        <v>4.387872773036978</v>
       </c>
       <c r="M19">
-        <v>24.62263176847287</v>
+        <v>34.15250943251228</v>
       </c>
       <c r="N19">
-        <v>18.25313748323822</v>
+        <v>21.98816177563732</v>
       </c>
       <c r="O19">
-        <v>22.44133820559873</v>
+        <v>21.87764462322314</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.23292629131125</v>
+        <v>8.77104694770633</v>
       </c>
       <c r="D20">
-        <v>4.232752515508862</v>
+        <v>2.567479033913855</v>
       </c>
       <c r="E20">
-        <v>12.36165128117915</v>
+        <v>5.655819925138862</v>
       </c>
       <c r="F20">
-        <v>25.99387333574991</v>
+        <v>29.21530185036717</v>
       </c>
       <c r="G20">
-        <v>32.90269147988026</v>
+        <v>42.93823009168997</v>
       </c>
       <c r="H20">
-        <v>14.25302966251011</v>
+        <v>11.36129936377588</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.773527198538138</v>
+        <v>4.344188987468466</v>
       </c>
       <c r="M20">
-        <v>24.88591996848558</v>
+        <v>34.79901057539277</v>
       </c>
       <c r="N20">
-        <v>18.36859150265975</v>
+        <v>22.29764942739508</v>
       </c>
       <c r="O20">
-        <v>22.49774209289638</v>
+        <v>22.24470062490125</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.21334183464102</v>
+        <v>9.090853855783353</v>
       </c>
       <c r="D21">
-        <v>4.233332113638435</v>
+        <v>2.568671641412285</v>
       </c>
       <c r="E21">
-        <v>12.26444894115219</v>
+        <v>5.450892500944971</v>
       </c>
       <c r="F21">
-        <v>26.36565701052886</v>
+        <v>31.04256527827122</v>
       </c>
       <c r="G21">
-        <v>33.64084801522299</v>
+        <v>45.75678953558408</v>
       </c>
       <c r="H21">
-        <v>14.29004515541369</v>
+        <v>11.84328456055876</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.728186986305825</v>
+        <v>4.198615458156993</v>
       </c>
       <c r="M21">
-        <v>25.75029271392254</v>
+        <v>36.89035824148668</v>
       </c>
       <c r="N21">
-        <v>18.7530549869502</v>
+        <v>23.31131800471059</v>
       </c>
       <c r="O21">
-        <v>22.69388856188441</v>
+        <v>23.46646347423379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.20379732295377</v>
+        <v>9.308447024673274</v>
       </c>
       <c r="D22">
-        <v>4.233757109195006</v>
+        <v>2.569293965694366</v>
       </c>
       <c r="E22">
-        <v>12.20335371134536</v>
+        <v>5.328772754812069</v>
       </c>
       <c r="F22">
-        <v>26.61279078814983</v>
+        <v>32.25633028698135</v>
       </c>
       <c r="G22">
-        <v>34.12438365921447</v>
+        <v>47.55473583184874</v>
       </c>
       <c r="H22">
-        <v>14.31712043176291</v>
+        <v>12.15981972392617</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.699529072972945</v>
+        <v>4.10424780591437</v>
       </c>
       <c r="M22">
-        <v>26.29939367016662</v>
+        <v>38.19751890264509</v>
       </c>
       <c r="N22">
-        <v>19.00136560686324</v>
+        <v>23.95374149233222</v>
       </c>
       <c r="O22">
-        <v>22.82686321122026</v>
+        <v>24.40179412081368</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.20859248511156</v>
+        <v>9.191526382872155</v>
       </c>
       <c r="D23">
-        <v>4.233526120193635</v>
+        <v>2.568977575951066</v>
       </c>
       <c r="E23">
-        <v>12.23573880389736</v>
+        <v>5.392773169189632</v>
       </c>
       <c r="F23">
-        <v>26.48053664100011</v>
+        <v>31.61137798726953</v>
       </c>
       <c r="G23">
-        <v>33.86626929378798</v>
+        <v>46.59911495950465</v>
       </c>
       <c r="H23">
-        <v>14.30240730587883</v>
+        <v>11.99074662068391</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.714735443426713</v>
+        <v>4.154550897748002</v>
       </c>
       <c r="M23">
-        <v>26.007819702187</v>
+        <v>37.50528338171609</v>
       </c>
       <c r="N23">
-        <v>18.8691326645061</v>
+        <v>23.61273673740544</v>
       </c>
       <c r="O23">
-        <v>22.75546550393854</v>
+        <v>23.90355635686773</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.23330108924546</v>
+        <v>8.76596438162753</v>
       </c>
       <c r="D24">
-        <v>4.232743836872693</v>
+        <v>2.567457196402795</v>
       </c>
       <c r="E24">
-        <v>12.3632810549724</v>
+        <v>5.659348667004963</v>
       </c>
       <c r="F24">
-        <v>25.98787252331808</v>
+        <v>29.18655612856404</v>
       </c>
       <c r="G24">
-        <v>32.89065875762552</v>
+        <v>42.891405034959</v>
       </c>
       <c r="H24">
-        <v>14.25247361577621</v>
+        <v>11.35344955685893</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.774284774072372</v>
+        <v>4.346583093327149</v>
       </c>
       <c r="M24">
-        <v>24.87153560389041</v>
+        <v>34.76381323240788</v>
       </c>
       <c r="N24">
-        <v>18.36226326508119</v>
+        <v>22.28075069262228</v>
       </c>
       <c r="O24">
-        <v>22.49461928280682</v>
+        <v>22.22458601646684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.27380927573925</v>
+        <v>8.343615071138244</v>
       </c>
       <c r="D25">
-        <v>4.232105035291562</v>
+        <v>2.565281102576434</v>
       </c>
       <c r="E25">
-        <v>12.51129613266566</v>
+        <v>5.98918674282987</v>
       </c>
       <c r="F25">
-        <v>25.47684072858808</v>
+        <v>26.63112029531187</v>
       </c>
       <c r="G25">
-        <v>31.84918068100226</v>
+        <v>38.77564762427632</v>
       </c>
       <c r="H25">
-        <v>14.21110553433758</v>
+        <v>10.67378775941373</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.842730275542047</v>
+        <v>4.557793677967068</v>
       </c>
       <c r="M25">
-        <v>23.58292278396566</v>
+        <v>31.54694034278405</v>
       </c>
       <c r="N25">
-        <v>17.8053945511672</v>
+        <v>20.76179884709115</v>
       </c>
       <c r="O25">
-        <v>22.2348289538332</v>
+        <v>20.45125214355269</v>
       </c>
     </row>
   </sheetData>
